--- a/udv_store/media/tables/Пользователи из загруженных таблиц.xlsx
+++ b/udv_store/media/tables/Пользователи из загруженных таблиц.xlsx
@@ -140,7 +140,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -151,6 +151,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -170,16 +174,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -226,55 +229,20 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="2"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/udv_store/media/tables/Пользователи из загруженных таблиц.xlsx
+++ b/udv_store/media/tables/Пользователи из загруженных таблиц.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t xml:space="preserve">last_name</t>
   </si>
@@ -50,6 +50,33 @@
   </si>
   <si>
     <t xml:space="preserve">artyomAdmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Никитин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Богдан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всеволодович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nikitin_B_V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Андрей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Николаевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pereev_A_N</t>
   </si>
 </sst>
 </file>
@@ -140,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -151,10 +178,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -174,15 +197,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -228,21 +252,52 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="G3" s="2"/>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="G4" s="2"/>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
